--- a/class_schedules_fall_2019/INDIVIDUAL MAJOR (INDV).xlsx
+++ b/class_schedules_fall_2019/INDIVIDUAL MAJOR (INDV).xlsx
@@ -449,7 +449,7 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
